--- a/SP_Sklad/TempLate/DocList(44).xlsx
+++ b/SP_Sklad/TempLate/DocList(44).xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$H$15</definedName>
-    <definedName name="MatInDet">Лист1!$A$12:$H$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$M$15</definedName>
+    <definedName name="MatInDet">Лист1!$A$12:$M$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>sum</t>
   </si>
@@ -41,9 +41,6 @@
     <t>Контрагент:</t>
   </si>
   <si>
-    <t>Cума</t>
-  </si>
-  <si>
     <t>СПИСОК ДОКУМЕНТІВ</t>
   </si>
   <si>
@@ -63,6 +60,21 @@
   </si>
   <si>
     <t>sum_SummAll</t>
+  </si>
+  <si>
+    <t>Виконавець</t>
+  </si>
+  <si>
+    <t>Надходження</t>
+  </si>
+  <si>
+    <t>Видаток</t>
+  </si>
+  <si>
+    <t>Зі складу</t>
+  </si>
+  <si>
+    <t>На склад</t>
   </si>
 </sst>
 </file>
@@ -459,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -506,6 +518,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -923,11 +947,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:J15"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -935,26 +959,35 @@
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="30" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="27" customHeight="1">
-      <c r="B1" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-    </row>
-    <row r="2" spans="2:10" ht="7.5" customHeight="1">
+    <row r="1" spans="2:15" ht="27" customHeight="1">
+      <c r="B1" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+    </row>
+    <row r="2" spans="2:15" ht="7.5" customHeight="1">
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -962,8 +995,13 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="2:10" ht="13.5" customHeight="1">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="2:15" ht="13.5" customHeight="1">
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -971,8 +1009,13 @@
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="2:10" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+    </row>
+    <row r="4" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="B4" s="14" t="s">
         <v>3</v>
       </c>
@@ -981,13 +1024,18 @@
         <v>#NAME?</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
       <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="2:10" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+    </row>
+    <row r="5" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
@@ -996,8 +1044,12 @@
         <v>#NAME?</v>
       </c>
       <c r="E5" s="15"/>
-    </row>
-    <row r="6" spans="2:10" s="13" customFormat="1" ht="15.75" customHeight="1">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+    </row>
+    <row r="6" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
       <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
@@ -1007,89 +1059,142 @@
         <v>#NAME?</v>
       </c>
       <c r="E6" s="15"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:10" ht="9" customHeight="1"/>
-    <row r="8" spans="2:10" ht="17.25" customHeight="1">
-      <c r="B8" s="31" t="s">
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+    </row>
+    <row r="7" spans="2:15" ht="9" customHeight="1"/>
+    <row r="8" spans="2:15" ht="17.25" customHeight="1">
+      <c r="B8" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="G8" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="31" t="s">
+      <c r="K8" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15" customHeight="1">
-      <c r="B9" s="32"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-    </row>
-    <row r="10" spans="2:10" ht="9" customHeight="1">
+      <c r="L8" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" ht="15" customHeight="1">
+      <c r="B9" s="36"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="2:15" ht="9" customHeight="1">
       <c r="B10" s="6"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B11" s="27" t="e">
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" ht="12.75" customHeight="1">
+      <c r="B11" s="31" t="e">
         <f>MatGroup_KaName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="2:10" ht="12.75" customHeight="1">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="2:15" ht="12.75" customHeight="1">
       <c r="B12" s="11" t="e">
         <f>MatInDet_Num</f>
         <v>#NAME?</v>
       </c>
-      <c r="C12" s="37" t="e">
+      <c r="C12" s="41" t="e">
         <f>MatInDet_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="24" t="e">
+      <c r="D12" s="42"/>
+      <c r="E12" s="28" t="e">
+        <f>MatInDet_Wtype</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="24" t="e">
         <f>MatInDet_DocType</f>
         <v>#NAME?</v>
       </c>
-      <c r="F12" s="10" t="e">
+      <c r="G12" s="10" t="e">
+        <f>MatInDet_PersonName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="10" t="e">
+        <f>MatInDet_SourceWhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="10" t="e">
+        <f>MatInDet_DestinationWhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="10" t="e">
         <f>MatInDet_Notes</f>
         <v>#NAME?</v>
       </c>
-      <c r="G12" s="10" t="e">
+      <c r="K12" s="10" t="e">
         <f>MatInDet_CurrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="H12" s="19" t="e">
-        <f>MatInDet_SummAll</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="12.75" customHeight="1">
+      <c r="L12" s="19" t="e">
+        <f>IF(E12&gt;0,MatInDet_SummAll,)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="M12" s="19" t="e">
+        <f>IF(E12&lt;0,MatInDet_SummAll,)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" ht="12.75" customHeight="1">
       <c r="B13" s="21"/>
       <c r="C13" s="8" t="s">
         <v>1</v>
@@ -1098,44 +1203,65 @@
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1">
+      <c r="M13" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="12.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B15" s="25" t="s">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="22"/>
+    </row>
+    <row r="15" spans="2:15" ht="12.75" customHeight="1">
+      <c r="B15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="23" t="s">
-        <v>13</v>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="14">
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B1:M1"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="M8:M9"/>
     <mergeCell ref="C8:D9"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/DocList(44).xlsx
+++ b/SP_Sklad/TempLate/DocList(44).xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$M$15</definedName>
-    <definedName name="MatInDet">Лист1!$A$12:$M$13</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$L$15</definedName>
+    <definedName name="MatInDet">Лист1!$A$12:$L$13</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$8:$9</definedName>
@@ -26,55 +26,55 @@
     <t>sum</t>
   </si>
   <si>
+    <t>Всього по відомості:</t>
+  </si>
+  <si>
+    <t>Період:</t>
+  </si>
+  <si>
+    <t>Склад:</t>
+  </si>
+  <si>
+    <t>Контрагент:</t>
+  </si>
+  <si>
+    <t>СПИСОК ДОКУМЕНТІВ</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Примітка</t>
+  </si>
+  <si>
+    <t>Валюта</t>
+  </si>
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Тип</t>
+  </si>
+  <si>
+    <t>sum_SummAll</t>
+  </si>
+  <si>
+    <t>Виконавець</t>
+  </si>
+  <si>
+    <t>Надходження</t>
+  </si>
+  <si>
+    <t>Видаток</t>
+  </si>
+  <si>
+    <t>Зі складу</t>
+  </si>
+  <si>
+    <t>На склад</t>
+  </si>
+  <si>
     <t>Разом по катогорії:</t>
-  </si>
-  <si>
-    <t>Всього по відомості:</t>
-  </si>
-  <si>
-    <t>Період:</t>
-  </si>
-  <si>
-    <t>Склад:</t>
-  </si>
-  <si>
-    <t>Контрагент:</t>
-  </si>
-  <si>
-    <t>СПИСОК ДОКУМЕНТІВ</t>
-  </si>
-  <si>
-    <t>Дата</t>
-  </si>
-  <si>
-    <t>Примітка</t>
-  </si>
-  <si>
-    <t>Валюта</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Тип</t>
-  </si>
-  <si>
-    <t>sum_SummAll</t>
-  </si>
-  <si>
-    <t>Виконавець</t>
-  </si>
-  <si>
-    <t>Надходження</t>
-  </si>
-  <si>
-    <t>Видаток</t>
-  </si>
-  <si>
-    <t>Зі складу</t>
-  </si>
-  <si>
-    <t>На склад</t>
   </si>
 </sst>
 </file>
@@ -471,18 +471,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -532,10 +530,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -554,24 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -947,7 +939,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:O15"/>
+  <dimension ref="B1:N15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
@@ -957,316 +949,301 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" style="1" customWidth="1"/>
-    <col min="7" max="8" width="29.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="27.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="1" customWidth="1"/>
+    <col min="4" max="4" width="0.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="29.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="27" customHeight="1">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="2:14" ht="27" customHeight="1">
+      <c r="B1" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+    </row>
+    <row r="2" spans="2:14" ht="7.5" customHeight="1">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" spans="2:14" ht="13.5" customHeight="1">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="2:14" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13" t="e">
+        <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B5" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="e">
+        <f>XLRPARAMS_WH</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="2:14" s="11" customFormat="1" ht="15.75" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="e">
+        <f>XLRPARAMS_KAID</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" spans="2:14" ht="9" customHeight="1"/>
+    <row r="8" spans="2:14" ht="17.25" customHeight="1">
+      <c r="B8" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-    </row>
-    <row r="2" spans="2:15" ht="7.5" customHeight="1">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="2:15" ht="13.5" customHeight="1">
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="4" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="15" t="e">
-        <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="15" t="e">
-        <f>XLRPARAMS_WH</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-    </row>
-    <row r="6" spans="2:15" s="13" customFormat="1" ht="15.75" customHeight="1">
-      <c r="B6" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="15" t="e">
-        <f>XLRPARAMS_KAID</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-    </row>
-    <row r="7" spans="2:15" ht="9" customHeight="1"/>
-    <row r="8" spans="2:15" ht="17.25" customHeight="1">
-      <c r="B8" s="35" t="s">
+      <c r="D8" s="24"/>
+      <c r="E8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="F8" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="43" t="s">
+      <c r="J8" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="43" t="s">
+      <c r="L8" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" ht="15" customHeight="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+    </row>
+    <row r="10" spans="2:14" ht="9" customHeight="1">
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B11" s="33" t="e">
+        <f>MatGroup_KaName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="35"/>
+    </row>
+    <row r="12" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B12" s="9" t="e">
+        <f>MatInDet_Num</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C12" s="29" t="e">
+        <f>MatInDet_OnDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D12" s="26" t="e">
+        <f>MatInDet_Wtype</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E12" s="22" t="e">
+        <f>MatInDet_DocType</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F12" s="8" t="e">
+        <f>MatInDet_PersonName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G12" s="8" t="e">
+        <f>MatInDet_SourceWhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H12" s="8" t="e">
+        <f>MatInDet_DestinationWhName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I12" s="8" t="e">
+        <f>MatInDet_Notes</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J12" s="8" t="e">
+        <f>MatInDet_CurrName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K12" s="17" t="e">
+        <f>IF(D12&gt;0,MatInDet_SummAll,)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="L12" s="17" t="e">
+        <f>IF(D12&lt;0,MatInDet_SummAll,)</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B13" s="19"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="K8" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="M8" s="35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" ht="15" customHeight="1">
-      <c r="B9" s="36"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-    </row>
-    <row r="10" spans="2:15" ht="9" customHeight="1">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B11" s="31" t="e">
-        <f>MatGroup_KaName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="33"/>
-    </row>
-    <row r="12" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B12" s="11" t="e">
-        <f>MatInDet_Num</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="C12" s="41" t="e">
-        <f>MatInDet_OnDate</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="28" t="e">
-        <f>MatInDet_Wtype</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F12" s="24" t="e">
-        <f>MatInDet_DocType</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G12" s="10" t="e">
-        <f>MatInDet_PersonName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="H12" s="10" t="e">
-        <f>MatInDet_SourceWhName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="I12" s="10" t="e">
-        <f>MatInDet_DestinationWhName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="J12" s="10" t="e">
-        <f>MatInDet_Notes</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K12" s="10" t="e">
-        <f>MatInDet_CurrName</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="L12" s="19" t="e">
-        <f>IF(E12&gt;0,MatInDet_SummAll,)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="M12" s="19" t="e">
-        <f>IF(E12&lt;0,MatInDet_SummAll,)</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B13" s="21"/>
-      <c r="C13" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="20" t="s">
+      <c r="K13" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="20" t="s">
+      <c r="L13" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="12.75" customHeight="1">
+    <row r="14" spans="2:14" ht="12.75" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="2:15" ht="12.75" customHeight="1">
-      <c r="B15" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="23" t="s">
-        <v>12</v>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:14" ht="12.75" customHeight="1">
+      <c r="B15" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B1:M1"/>
+  <mergeCells count="12">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="L8:L9"/>
     <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>